--- a/excel-files/format/formatted-excel-file.xlsx
+++ b/excel-files/format/formatted-excel-file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,252 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FMDAL1165</t>
+          <t>HYDRACTTNCANDY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://static.wixstatic.com/media/0a81fd_78a89cf4e17846b59d2f367727daadcf~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_78a89cf4e17846b59d2f367727daadcf~mv2.jpg|https://static.wixstatic.com/media/0a81fd_8e5a3aba66e949b6a958bc8f57c3c807~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_8e5a3aba66e949b6a958bc8f57c3c807~mv2.jpg|https://static.wixstatic.com/media/0a81fd_afee5da1b1164b138825af7bf4f3c94b~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_afee5da1b1164b138825af7bf4f3c94b~mv2.jpg|https://static.wixstatic.com/media/0a81fd_60f7e2177a70425c9bca6913a908092f~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_60f7e2177a70425c9bca6913a908092f~mv2.jpg</t>
+          <t>https://static.wixstatic.com/media/880a5b_b7cc9a5e6e314eeb812f19bb0a7363dd~mv2.jpg/v1/fill/w_625,h_834,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/880a5b_b7cc9a5e6e314eeb812f19bb0a7363dd~mv2.jpg|https://static.wixstatic.com/media/880a5b_1a38d6041e7848dda62fffb429b86086~mv2.jpg/v1/fill/w_625,h_834,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/880a5b_1a38d6041e7848dda62fffb429b86086~mv2.jpg|https://static.wixstatic.com/media/880a5b_a541fa8012484b3e8abcc4a6423c312b~mv2.jpg/v1/fill/w_625,h_834,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/880a5b_a541fa8012484b3e8abcc4a6423c312b~mv2.jpg|https://static.wixstatic.com/media/880a5b_77853c176730465fbadbcca39b7c4d99~mv2.jpg/v1/fill/w_625,h_834,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/880a5b_77853c176730465fbadbcca39b7c4d99~mv2.jpg|https://static.wixstatic.com/media/880a5b_77853c176730465fbadbcca39b7c4d99~mv2.jpg/v1/fill/w_625,h_834,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/880a5b_77853c176730465fbadbcca39b7c4d99~mv2.jpg|https://static.wixstatic.com/media/880a5b_e1ff169e43fc443fb9282220f78ce3cd~mv2.png/v1/fill/w_625,h_834,al_c,q_90,usm_0.66_1.00_0.01,enc_auto/880a5b_e1ff169e43fc443fb9282220f78ce3cd~mv2.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FMDAL1166</t>
+          <t>HYDRASNSTGLOW</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://static.wixstatic.com/media/0a81fd_0140030606354036a2f364c92d51b896~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_0140030606354036a2f364c92d51b896~mv2.jpg|https://static.wixstatic.com/media/0a81fd_215829f833f74931bf44937d388128dd~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_215829f833f74931bf44937d388128dd~mv2.jpg|https://static.wixstatic.com/media/0a81fd_8ce4797babf247a69f84d9d764a4fe64~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_8ce4797babf247a69f84d9d764a4fe64~mv2.jpg|https://static.wixstatic.com/media/0a81fd_40296a4bd46c4c28a11d7cc192442c99~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_40296a4bd46c4c28a11d7cc192442c99~mv2.jpg|https://static.wixstatic.com/media/0a81fd_026373c23c4a485092b50fd46baa602f~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_026373c23c4a485092b50fd46baa602f~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>FMDAL1169</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_47c3b5475a3a4b91ad3170e374b614df~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_47c3b5475a3a4b91ad3170e374b614df~mv2.jpg|https://static.wixstatic.com/media/0a81fd_ddc5c8c57c9b41ffa39b21cc14171b12~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_ddc5c8c57c9b41ffa39b21cc14171b12~mv2.jpg|https://static.wixstatic.com/media/0a81fd_10d88342ac1c462b8b9b81f281016e1c~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_10d88342ac1c462b8b9b81f281016e1c~mv2.jpg|https://static.wixstatic.com/media/0a81fd_a269a87081e3421f9aa5bca25c5a3da4~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_a269a87081e3421f9aa5bca25c5a3da4~mv2.jpg|https://static.wixstatic.com/media/0a81fd_ee38f50e25c949f18543d75af514f051~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_ee38f50e25c949f18543d75af514f051~mv2.jpg|https://static.wixstatic.com/media/0a81fd_d32816f926fe4f8299d56b9a68bba68e~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_d32816f926fe4f8299d56b9a68bba68e~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>FMDAL1170</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_fb15cf99c7484e99957cc6604c57eac8~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_fb15cf99c7484e99957cc6604c57eac8~mv2.jpg|https://static.wixstatic.com/media/0a81fd_32dc249842164dee854e034fddab24e9~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_32dc249842164dee854e034fddab24e9~mv2.jpg|https://static.wixstatic.com/media/0a81fd_7caf68127bc3423ca14f74cbc1c65de7~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_7caf68127bc3423ca14f74cbc1c65de7~mv2.jpg|https://static.wixstatic.com/media/0a81fd_1fdfc704549c42638a395133e1cb1105~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_1fdfc704549c42638a395133e1cb1105~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FMDAL1171</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_381bc15c27124deab3f42e5f4439c285~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_381bc15c27124deab3f42e5f4439c285~mv2.jpg|https://static.wixstatic.com/media/0a81fd_08d6be9e45fc4d6d80c273e0ac343a06~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_08d6be9e45fc4d6d80c273e0ac343a06~mv2.jpg|https://static.wixstatic.com/media/0a81fd_fd219bd82fe84dab94057c34ec0e3619~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_fd219bd82fe84dab94057c34ec0e3619~mv2.jpg|https://static.wixstatic.com/media/0a81fd_6974c9590e9047b099b2879685787189~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_6974c9590e9047b099b2879685787189~mv2.jpg|https://static.wixstatic.com/media/0a81fd_cc5e281bf057447eab082febaf23e594~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_cc5e281bf057447eab082febaf23e594~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FMDAL1172</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_12904f55967642a0b1742e627f7f7ab7~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_12904f55967642a0b1742e627f7f7ab7~mv2.jpg|https://static.wixstatic.com/media/0a81fd_b0ba3bd56cfc4002b82e6711a167b171~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_b0ba3bd56cfc4002b82e6711a167b171~mv2.jpg|https://static.wixstatic.com/media/0a81fd_b4eaa8f3cd4242509dc1a7e68a839633~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_b4eaa8f3cd4242509dc1a7e68a839633~mv2.jpg|https://static.wixstatic.com/media/0a81fd_e01cf6bc198444ec9d12c57806d97b77~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_e01cf6bc198444ec9d12c57806d97b77~mv2.jpg|https://static.wixstatic.com/media/0a81fd_3dccb2602f7647d7b7f31b277505528b~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_3dccb2602f7647d7b7f31b277505528b~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FMDAL1173</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_262933ae12d640b2b0274cb69fe58264~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_262933ae12d640b2b0274cb69fe58264~mv2.jpg|https://static.wixstatic.com/media/0a81fd_ce5081d14fb34043b1fc786feccdcb68~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_ce5081d14fb34043b1fc786feccdcb68~mv2.jpg|https://static.wixstatic.com/media/0a81fd_f6ed4203b8d546598cedad7b725ab7bf~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_f6ed4203b8d546598cedad7b725ab7bf~mv2.jpg|https://static.wixstatic.com/media/0a81fd_1df955348cc3460b95ac013136ade916~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_1df955348cc3460b95ac013136ade916~mv2.jpg|https://static.wixstatic.com/media/0a81fd_fa063a9f63de42fa9f9b93be25c51ba7~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_fa063a9f63de42fa9f9b93be25c51ba7~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FMDAL1174</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_c5e6f152f7fd4835a911a06ebd6615a7~mv2.webp|https://static.wixstatic.com/media/0a81fd_3cad92739bc4421086946ac3e4a2f094~mv2.webp|https://static.wixstatic.com/media/0a81fd_ff590d678be142cb9d79098a357f3992~mv2.webp|https://static.wixstatic.com/media/0a81fd_d50fd56a9359485d9af5c35594a6377a~mv2.webp|https://static.wixstatic.com/media/0a81fd_386a18cc943b4697a83e37f04ec58bad~mv2.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FMDAL1175</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_50c67fd737624e768e8d4df4cbd810be~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_50c67fd737624e768e8d4df4cbd810be~mv2.jpg|https://static.wixstatic.com/media/0a81fd_4d3f9d9c52ba4ee88c34bcaca5d820aa~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_4d3f9d9c52ba4ee88c34bcaca5d820aa~mv2.jpg|https://static.wixstatic.com/media/0a81fd_2a8483ff9f0a4cdfba28b48b8659711f~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_2a8483ff9f0a4cdfba28b48b8659711f~mv2.jpg|https://static.wixstatic.com/media/0a81fd_8af9d259c60047e190c6a44f0c142552~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_8af9d259c60047e190c6a44f0c142552~mv2.jpg|https://static.wixstatic.com/media/0a81fd_9fadca4bea2c4a7f83b22a3f9944c93e~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_9fadca4bea2c4a7f83b22a3f9944c93e~mv2.jpg|https://static.wixstatic.com/media/0a81fd_6bd93d5caa224de7bd1953b3e70cbec3~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_6bd93d5caa224de7bd1953b3e70cbec3~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>FMDAL1177</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_6e2de229ae9e42da96b38db08d6a804a~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_6e2de229ae9e42da96b38db08d6a804a~mv2.jpg|https://static.wixstatic.com/media/0a81fd_96a74afafe7b43839755ac76f77e33a7~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_96a74afafe7b43839755ac76f77e33a7~mv2.jpg|https://static.wixstatic.com/media/0a81fd_afe0f9dfe60b481eb5e2db99aa20cbfe~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_afe0f9dfe60b481eb5e2db99aa20cbfe~mv2.jpg|https://static.wixstatic.com/media/0a81fd_77182f3250404ce1807a1668307b2062~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_77182f3250404ce1807a1668307b2062~mv2.jpg|https://static.wixstatic.com/media/0a81fd_84ae680a37eb4345b9a8b496229f719c~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_84ae680a37eb4345b9a8b496229f719c~mv2.jpg|https://static.wixstatic.com/media/0a81fd_18a0d959644f46749a95cd968e1ef6a1~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_18a0d959644f46749a95cd968e1ef6a1~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FMDAL1178</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_d086a7908215452ab583d158e7969096~mv2.webp|https://static.wixstatic.com/media/0a81fd_fad57bbe3ba1450294b37133ba902f79~mv2.webp|https://static.wixstatic.com/media/0a81fd_2cab637464c14bbea7cb6138a7c62c04~mv2.webp|https://static.wixstatic.com/media/0a81fd_3261b05ec6484452b57ba57192b6c933~mv2.webp|https://static.wixstatic.com/media/0a81fd_4d546afa9eca4b8698d29c807760b457~mv2.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>FMDAL1179</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_256a81d0bd384968aa248daf823c3f12~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_256a81d0bd384968aa248daf823c3f12~mv2.jpg|https://static.wixstatic.com/media/0a81fd_ffddebd169e04e4f825a91913a7a28fe~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_ffddebd169e04e4f825a91913a7a28fe~mv2.jpg|https://static.wixstatic.com/media/0a81fd_57594134c8ac443bad60fdc24893a485~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_57594134c8ac443bad60fdc24893a485~mv2.jpg|https://static.wixstatic.com/media/0a81fd_ed697bdfef88446f87f752a1069c4dd0~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_ed697bdfef88446f87f752a1069c4dd0~mv2.jpg|https://static.wixstatic.com/media/0a81fd_a9eeb7894a4649f182c35e538aba4d50~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_a9eeb7894a4649f182c35e538aba4d50~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>FMDAL1180</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_82c78d31a8964934b6ada93efe7772fd~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_82c78d31a8964934b6ada93efe7772fd~mv2.jpg|https://static.wixstatic.com/media/0a81fd_c1aecf4badd64c1888b4c5f815aca7de~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_c1aecf4badd64c1888b4c5f815aca7de~mv2.jpg|https://static.wixstatic.com/media/0a81fd_c32735daefa24b3cb0af046b7df52c89~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_c32735daefa24b3cb0af046b7df52c89~mv2.jpg|https://static.wixstatic.com/media/0a81fd_0dcdafd2a1994b57a5a3ef69f78d6487~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_0dcdafd2a1994b57a5a3ef69f78d6487~mv2.jpg|https://static.wixstatic.com/media/0a81fd_d20bdd539e8d46f18f8c4192a076bdc9~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_d20bdd539e8d46f18f8c4192a076bdc9~mv2.jpg|https://static.wixstatic.com/media/0a81fd_9e484ce62cc04860970550569d3727bc~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_9e484ce62cc04860970550569d3727bc~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>FMDAL1182</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_e9c4ffea25ce4210a527c54a9c24904f~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_e9c4ffea25ce4210a527c54a9c24904f~mv2.jpg|https://static.wixstatic.com/media/0a81fd_cc9909f118a1435db40dd2c7f08353aa~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_cc9909f118a1435db40dd2c7f08353aa~mv2.jpg|https://static.wixstatic.com/media/0a81fd_2c35a89397174f35b08e61c07a6ad759~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_2c35a89397174f35b08e61c07a6ad759~mv2.jpg|https://static.wixstatic.com/media/0a81fd_bc577f746a764495a11408ab1d54686c~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_bc577f746a764495a11408ab1d54686c~mv2.jpg|https://static.wixstatic.com/media/0a81fd_543f880ad30f449aab6ca4fae633b6d5~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_543f880ad30f449aab6ca4fae633b6d5~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>FMDAL1183</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_e7fd27749923438685d2bbbbe564e2ec~mv2.webp|https://static.wixstatic.com/media/0a81fd_82ceec50cbe64e769eb73873ebe552aa~mv2.webp|https://static.wixstatic.com/media/0a81fd_277bd8889b7d4da7921d950043f70c64~mv2.webp|https://static.wixstatic.com/media/0a81fd_8217c8ccddcf4b8f9355c18b88f53764~mv2.webp|https://static.wixstatic.com/media/0a81fd_fee1965efb7c4c20954a565e182acb16~mv2.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>FMDAL1184</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_545aa7f4168241108a19912e4715709f~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_545aa7f4168241108a19912e4715709f~mv2.jpg|https://static.wixstatic.com/media/0a81fd_285611dfade24c4cab4aa22a46ae5287~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_285611dfade24c4cab4aa22a46ae5287~mv2.jpg|https://static.wixstatic.com/media/0a81fd_166d7acc96e9451c87dc1640ebd8f557~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_166d7acc96e9451c87dc1640ebd8f557~mv2.jpg|https://static.wixstatic.com/media/0a81fd_d666f4ac0b3449b384f455beeee459c8~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_d666f4ac0b3449b384f455beeee459c8~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>FMDAL1185</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_a524912b17964e8a859fd81a09dbbb56~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_a524912b17964e8a859fd81a09dbbb56~mv2.jpg|https://static.wixstatic.com/media/0a81fd_86b6b36819ea46429118134d7dd89aea~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_86b6b36819ea46429118134d7dd89aea~mv2.jpg|https://static.wixstatic.com/media/0a81fd_a8c1a1fbfa094a39bf46b30c98a80cdf~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_a8c1a1fbfa094a39bf46b30c98a80cdf~mv2.jpg|https://static.wixstatic.com/media/0a81fd_ab91e78756784b54a22c4216d71529a7~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_ab91e78756784b54a22c4216d71529a7~mv2.jpg|https://static.wixstatic.com/media/0a81fd_a87cd754b3d84c749c2b9672aec7d937~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_a87cd754b3d84c749c2b9672aec7d937~mv2.jpg|https://static.wixstatic.com/media/0a81fd_1cf2321d70c34e92910af5823b310dc7~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_1cf2321d70c34e92910af5823b310dc7~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>FMDAL1186</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_732888744cad4d7f8d3de04ee38594c1~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_732888744cad4d7f8d3de04ee38594c1~mv2.jpg|https://static.wixstatic.com/media/0a81fd_8af5048faae44c9f9e2586fde1eb59e3~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_8af5048faae44c9f9e2586fde1eb59e3~mv2.jpg|https://static.wixstatic.com/media/0a81fd_c6a225404ff94f6c81ab1a8a8cdfce87~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_c6a225404ff94f6c81ab1a8a8cdfce87~mv2.jpg|https://static.wixstatic.com/media/0a81fd_ad3e72a2bcd34f818162a44125c67a5a~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_ad3e72a2bcd34f818162a44125c67a5a~mv2.jpg|https://static.wixstatic.com/media/0a81fd_f7eecfe683164691bf278cc95c65d690~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_f7eecfe683164691bf278cc95c65d690~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>FMDAL1187</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_93ba4e2100354c31a04da481f1165fd1~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_93ba4e2100354c31a04da481f1165fd1~mv2.jpg|https://static.wixstatic.com/media/0a81fd_4e331f5c633a42f0bedf963af9dd59bd~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_4e331f5c633a42f0bedf963af9dd59bd~mv2.jpg|https://static.wixstatic.com/media/0a81fd_8f46c2300e4b472cb9385567e13d0a83~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_8f46c2300e4b472cb9385567e13d0a83~mv2.jpg|https://static.wixstatic.com/media/0a81fd_3687ebf5521e4400a43d8d3177fe231d~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_3687ebf5521e4400a43d8d3177fe231d~mv2.jpg|https://static.wixstatic.com/media/0a81fd_6c2fc62e60e84a298c9bbbe30ded6099~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_6c2fc62e60e84a298c9bbbe30ded6099~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>FMDAL1189</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_fb933ef99bea43798cceab29e2a43786~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_fb933ef99bea43798cceab29e2a43786~mv2.jpg|https://static.wixstatic.com/media/0a81fd_c4d8e2b42d6943e08a52c9ed604e6ec6~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_c4d8e2b42d6943e08a52c9ed604e6ec6~mv2.jpg|https://static.wixstatic.com/media/0a81fd_d99cacba9d3243969cbba13544ceac8f~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_d99cacba9d3243969cbba13544ceac8f~mv2.jpg|https://static.wixstatic.com/media/0a81fd_7690bf619ac743b1a28fe10187a8df03~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_7690bf619ac743b1a28fe10187a8df03~mv2.jpg|https://static.wixstatic.com/media/0a81fd_52db32c545d74f77af4e131c369e8f32~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_52db32c545d74f77af4e131c369e8f32~mv2.jpg|https://static.wixstatic.com/media/0a81fd_00c3b5744eba463998c28474bbad5b78~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_00c3b5744eba463998c28474bbad5b78~mv2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>FMDAL1190</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://static.wixstatic.com/media/0a81fd_4d8b7a2133e54941ae51e8e05417af43~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_4d8b7a2133e54941ae51e8e05417af43~mv2.jpg|https://static.wixstatic.com/media/0a81fd_c472a2ca0d7d4559ba34afc91c084490~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_c472a2ca0d7d4559ba34afc91c084490~mv2.jpg|https://static.wixstatic.com/media/0a81fd_88edc41f5d574b1390c284b66b5b2ce8~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_88edc41f5d574b1390c284b66b5b2ce8~mv2.jpg|https://static.wixstatic.com/media/0a81fd_33a0018906464f8a9e445ca1615d39b9~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_33a0018906464f8a9e445ca1615d39b9~mv2.jpg|https://static.wixstatic.com/media/0a81fd_e9982dfb9bab41c78e0ef58292cfee39~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_e9982dfb9bab41c78e0ef58292cfee39~mv2.jpg|https://static.wixstatic.com/media/0a81fd_fd915bf3c7f94a71aec9b8cd38e2869c~mv2.jpg/v1/fill/w_1086,h_1086,al_c,q_85,usm_0.66_1.00_0.01/0a81fd_fd915bf3c7f94a71aec9b8cd38e2869c~mv2.jpg</t>
+          <t>https://static.wixstatic.com/media/880a5b_6c4328598cc94d43b742c716f90bed2b~mv2.jpg/v1/fill/w_625,h_834,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/880a5b_6c4328598cc94d43b742c716f90bed2b~mv2.jpg|https://static.wixstatic.com/media/880a5b_a4c5bc410a564768b4e2604d57d6fe03~mv2.jpg/v1/fill/w_625,h_834,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/880a5b_a4c5bc410a564768b4e2604d57d6fe03~mv2.jpg|https://static.wixstatic.com/media/880a5b_11b17c7f0b54428aa9464e82eeeebaf4~mv2.jpg/v1/fill/w_625,h_834,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/880a5b_11b17c7f0b54428aa9464e82eeeebaf4~mv2.jpg|https://static.wixstatic.com/media/880a5b_496772c30b714df3b1e0100625986e61~mv2.jpg/v1/fill/w_625,h_834,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/880a5b_496772c30b714df3b1e0100625986e61~mv2.jpg|https://static.wixstatic.com/media/880a5b_ef11709726dd4866ad25a7c13e44bea7~mv2.jpg/v1/fill/w_625,h_834,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/880a5b_ef11709726dd4866ad25a7c13e44bea7~mv2.jpg|https://static.wixstatic.com/media/880a5b_71b3783c2bc74f779b209439003520dc~mv2.png/v1/fill/w_625,h_834,al_c,q_90,usm_0.66_1.00_0.01,enc_auto/880a5b_71b3783c2bc74f779b209439003520dc~mv2.png</t>
         </is>
       </c>
     </row>
